--- a/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\cmp\BJ105\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
     <sheet name="栏位解释" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>日期</t>
   </si>
@@ -113,6 +118,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>栏位</t>
@@ -124,6 +130,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名称</t>
@@ -135,6 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>释义</t>
@@ -146,6 +154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注意事项</t>
@@ -160,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日期</t>
@@ -171,6 +181,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下单日期</t>
@@ -185,6 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户名称</t>
@@ -196,6 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下单公司的</t>
@@ -206,6 +219,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>全称</t>
@@ -217,6 +231,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>这个必须是公司全称，</t>
@@ -226,7 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -235,6 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>且与发票中付款公司的名称一样（不可以</t>
@@ -244,7 +260,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -253,6 +269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公司下单，</t>
@@ -262,7 +279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -271,6 +288,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>但是</t>
@@ -280,7 +298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>B</t>
     </r>
@@ -289,6 +307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公司付款）</t>
@@ -303,6 +322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>订单号</t>
@@ -314,7 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>PO</t>
     </r>
@@ -323,6 +343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -334,7 +355,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1:</t>
     </r>
@@ -343,6 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贵司如果是</t>
@@ -352,7 +374,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>blank PO</t>
     </r>
@@ -361,6 +383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，请在合作一开始就告知我司，但是每次</t>
@@ -370,7 +393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>PO#</t>
     </r>
@@ -379,6 +402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>还是需要写的</t>
@@ -393,6 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>订单类型</t>
@@ -404,6 +429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>样品还是量产</t>
@@ -415,6 +441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户产品可能有不同</t>
@@ -424,7 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -433,6 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合批的需求，合批规则可能涉及到样品与量产的方式不同，所以订单中必须明确定义产品是量产还是样品</t>
@@ -447,7 +475,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>FAB</t>
     </r>
@@ -456,6 +484,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机种名</t>
@@ -467,6 +496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>晶圆名称</t>
@@ -481,6 +511,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户机种名</t>
@@ -492,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于显示在标签上的机种名</t>
@@ -506,7 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -515,6 +547,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -526,7 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1:</t>
     </r>
@@ -535,6 +568,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每个</t>
@@ -544,7 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -553,6 +587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">一行
@@ -563,7 +598,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: </t>
     </r>
@@ -572,6 +607,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贵司的</t>
@@ -581,7 +617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -590,6 +626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>命名方式如果位数很长，</t>
@@ -599,7 +636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -608,6 +645,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>则一定要提前告知我司</t>
@@ -625,7 +663,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -634,6 +672,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：如果是整</t>
@@ -643,7 +682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot 25</t>
     </r>
@@ -652,6 +691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>片，</t>
@@ -661,7 +701,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -670,6 +710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以为空或者显示</t>
@@ -679,7 +720,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>#1~25</t>
     </r>
@@ -688,6 +729,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -698,7 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -707,6 +749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -716,7 +759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -725,6 +768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果是非整</t>
@@ -734,7 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -743,6 +787,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，则需要用</t>
@@ -752,7 +797,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>#</t>
     </r>
@@ -761,6 +806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开头，</t>
@@ -770,7 +816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -779,6 +825,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用逗号隔开每个不连续的</t>
@@ -788,7 +835,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -797,6 +844,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，比如</t>
@@ -806,7 +854,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>#1~3, 5,7,10~25</t>
     </r>
@@ -820,6 +868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>片数</t>
@@ -834,6 +883,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出货地址代码</t>
@@ -845,6 +895,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出给下一站的地址代码</t>
@@ -856,7 +907,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -865,6 +916,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>具体的地址联系人等信息可以在信息第一次出现的时候邮件通知我司，</t>
@@ -874,7 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -883,6 +935,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>我司会将地址录入系统。信息包含公司名称，</t>
@@ -892,7 +945,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -901,6 +954,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">公司详细地址（包含邮政编码），收件人，收件人联系方式。
@@ -911,7 +965,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -920,6 +974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：后续订单中，如果出货联系信息不变，则只要告知地址代码即可。但是如果有任何一点变更，就算同一个地点但是收货人变更了，</t>
@@ -929,7 +984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -938,6 +993,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">信息也要全部重新提供即第一点，防止寄错。
@@ -948,7 +1004,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -957,6 +1013,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -966,7 +1023,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -975,6 +1032,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果同一个地址不同的收件人，如果是并存的关系则需要建立不同的地址代码，如果是替换关系，则可以不用更改地址代码（但是同</t>
@@ -984,7 +1042,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -993,6 +1051,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1002,7 +1061,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1011,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>所有信息即第一点需要全部重新提供一次）</t>
@@ -1025,6 +1085,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>运输方式</t>
@@ -1036,6 +1097,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>我司产品出货的运输方式：快件，</t>
@@ -1045,7 +1107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1054,6 +1116,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>货代名称，客户自提</t>
@@ -1063,7 +1126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1072,6 +1135,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>还是</t>
@@ -1081,7 +1145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HT</t>
     </r>
@@ -1090,6 +1154,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>送货</t>
@@ -1101,6 +1166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1110,7 +1176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>DHL</t>
     </r>
@@ -1124,6 +1190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>账号</t>
@@ -1135,6 +1202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果是走快件的话，贵司负责运费，则贵司账号是多少</t>
@@ -1146,6 +1214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1155,7 +1224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>DHL</t>
     </r>
@@ -1164,6 +1233,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>账号</t>
@@ -1178,6 +1248,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1187,7 +1258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1198,6 +1269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>以上栏位不能满足贵司对订单内容的要求时，</t>
@@ -1207,7 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1216,6 +1288,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>则可以在此栏位进行显示</t>
@@ -1225,7 +1298,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1234,6 +1307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>但是栏位名称不能变动</t>
@@ -1245,6 +1319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1254,7 +1329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>laser mark</t>
     </r>
@@ -1268,6 +1343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1277,7 +1353,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1288,6 +1364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同上，这样的栏位总计会预留</t>
@@ -1297,7 +1374,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1306,6 +1383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -1317,6 +1395,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1326,7 +1405,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>datecode</t>
     </r>
@@ -1343,6 +1422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如来料晶圆的快递单号</t>
@@ -1357,6 +1437,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1366,7 +1447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1377,6 +1458,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1386,7 +1468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>PDS</t>
     </r>
@@ -1395,23 +1477,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编号</t>
     </r>
+  </si>
+  <si>
+    <t>#10~25</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,187 +1507,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1611,210 +1547,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1837,274 +1597,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2117,9 +1635,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2139,71 +1654,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="10">
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="百分比 2" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="百分比 2" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="常规 3 2 2" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="常规 8" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="46" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="55"/>
-    <cellStyle name="常规 5" xfId="56"/>
-    <cellStyle name="千位分隔 2" xfId="57"/>
+    <cellStyle name="常规 10" xfId="6"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 2 2" xfId="5"/>
+    <cellStyle name="常规 3 2 2" xfId="2"/>
+    <cellStyle name="常规 5" xfId="8"/>
+    <cellStyle name="常规 8" xfId="3"/>
+    <cellStyle name="千位分隔 2" xfId="9"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2252,7 +1726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2287,7 +1761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2490,27 +1964,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="30.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="32.25" customWidth="1"/>
@@ -2520,137 +1994,182 @@
     <col min="22" max="22" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:22">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:22">
-      <c r="A2" s="5">
+    <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>43976</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="4" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="6">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="5">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -2658,7 +2177,7 @@
     <col min="4" max="4" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -2684,7 +2203,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -2698,7 +2217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2712,7 +2231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="27.75" spans="1:4">
+    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +2245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2738,7 +2257,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -2752,7 +2271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:4">
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2766,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:4">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -2780,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -2790,7 +2309,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" ht="85.5" spans="1:4">
+    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2804,7 +2323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:4">
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2818,7 +2337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:4">
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,7 +2351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" ht="41.25" spans="1:4">
+    <row r="14" spans="1:4" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>75</v>
       </c>
@@ -2846,40 +2365,40 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1" t="s">
         <v>88</v>
       </c>
@@ -2888,23 +2407,20 @@
   <mergeCells count="1">
     <mergeCell ref="C15:C17"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
+++ b/uploads/po/普通销售订单/BJ105/AP623013P_20200525_Bump_Prod.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\cmp\BJ105\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
     <sheet name="栏位解释" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>日期</t>
   </si>
   <si>
+    <t>lot号</t>
+  </si>
+  <si>
     <t>客户名称</t>
   </si>
   <si>
@@ -41,9 +39,6 @@
     <t>客户机种名</t>
   </si>
   <si>
-    <t>lot号</t>
-  </si>
-  <si>
     <t>WAFER ID</t>
   </si>
   <si>
@@ -89,6 +84,9 @@
     <t>特殊需求10</t>
   </si>
   <si>
+    <t>TW55040</t>
+  </si>
+  <si>
     <t>芯洲科技(北京)有限公司</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>AP623013P</t>
   </si>
   <si>
-    <t>TW55040</t>
-  </si>
-  <si>
     <t>#1~3</t>
   </si>
   <si>
@@ -113,12 +108,23 @@
     <t>SF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <t>TW55041</t>
+  </si>
+  <si>
+    <t>#10~25</t>
+  </si>
+  <si>
+    <t>TW55042</t>
+  </si>
+  <si>
+    <t>#1~25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>栏位</t>
@@ -130,7 +136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>名称</t>
@@ -142,7 +147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>释义</t>
@@ -154,7 +158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>注意事项</t>
@@ -169,7 +172,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日期</t>
@@ -181,7 +183,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下单日期</t>
@@ -196,7 +197,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户名称</t>
@@ -208,7 +208,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>下单公司的</t>
@@ -219,7 +218,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>全称</t>
@@ -231,7 +229,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>这个必须是公司全称，</t>
@@ -241,7 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -250,7 +247,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>且与发票中付款公司的名称一样（不可以</t>
@@ -260,7 +256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -269,7 +265,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公司下单，</t>
@@ -279,7 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -288,7 +283,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>但是</t>
@@ -298,7 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>B</t>
     </r>
@@ -307,7 +301,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>公司付款）</t>
@@ -322,7 +315,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>订单号</t>
@@ -334,7 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>PO</t>
     </r>
@@ -343,7 +335,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -355,7 +346,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1:</t>
     </r>
@@ -364,7 +355,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贵司如果是</t>
@@ -374,7 +364,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>blank PO</t>
     </r>
@@ -383,7 +373,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，请在合作一开始就告知我司，但是每次</t>
@@ -393,7 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>PO#</t>
     </r>
@@ -402,7 +391,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>还是需要写的</t>
@@ -417,7 +405,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>订单类型</t>
@@ -429,7 +416,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>样品还是量产</t>
@@ -441,7 +427,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户产品可能有不同</t>
@@ -451,7 +436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -460,7 +445,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>合批的需求，合批规则可能涉及到样品与量产的方式不同，所以订单中必须明确定义产品是量产还是样品</t>
@@ -475,7 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>FAB</t>
     </r>
@@ -484,7 +468,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>机种名</t>
@@ -496,7 +479,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>晶圆名称</t>
@@ -511,7 +493,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户机种名</t>
@@ -523,7 +504,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用于显示在标签上的机种名</t>
@@ -538,7 +518,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -547,7 +527,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号</t>
@@ -559,7 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1:</t>
     </r>
@@ -568,7 +547,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>每个</t>
@@ -578,7 +556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -587,7 +565,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">一行
@@ -598,7 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2: </t>
     </r>
@@ -607,7 +584,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>贵司的</t>
@@ -617,7 +593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -626,7 +602,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>命名方式如果位数很长，</t>
@@ -636,7 +611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -645,7 +620,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>则一定要提前告知我司</t>
@@ -663,7 +637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -672,7 +646,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：如果是整</t>
@@ -682,7 +655,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot 25</t>
     </r>
@@ -691,7 +664,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>片，</t>
@@ -701,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -710,7 +682,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>可以为空或者显示</t>
@@ -720,7 +691,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>#1~25</t>
     </r>
@@ -729,7 +700,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -740,7 +710,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -749,7 +719,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -759,7 +728,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -768,7 +737,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果是非整</t>
@@ -778,7 +746,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lot</t>
     </r>
@@ -787,7 +755,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，则需要用</t>
@@ -797,7 +764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -806,7 +773,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开头，</t>
@@ -816,7 +782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -825,7 +791,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>用逗号隔开每个不连续的</t>
@@ -835,7 +800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -844,7 +809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，比如</t>
@@ -854,7 +818,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>#1~3, 5,7,10~25</t>
     </r>
@@ -868,7 +832,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>片数</t>
@@ -883,7 +846,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出货地址代码</t>
@@ -895,7 +857,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出给下一站的地址代码</t>
@@ -907,7 +868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -916,7 +877,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>具体的地址联系人等信息可以在信息第一次出现的时候邮件通知我司，</t>
@@ -926,7 +886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -935,7 +895,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>我司会将地址录入系统。信息包含公司名称，</t>
@@ -945,7 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -954,7 +913,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">公司详细地址（包含邮政编码），收件人，收件人联系方式。
@@ -965,7 +923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -974,7 +932,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：后续订单中，如果出货联系信息不变，则只要告知地址代码即可。但是如果有任何一点变更，就算同一个地点但是收货人变更了，</t>
@@ -984,7 +941,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -993,7 +950,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">信息也要全部重新提供即第一点，防止寄错。
@@ -1004,7 +960,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1013,7 +969,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1023,7 +978,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1032,7 +987,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果同一个地址不同的收件人，如果是并存的关系则需要建立不同的地址代码，如果是替换关系，则可以不用更改地址代码（但是同</t>
@@ -1042,7 +996,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1051,7 +1005,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1061,7 +1014,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1070,7 +1023,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>所有信息即第一点需要全部重新提供一次）</t>
@@ -1085,7 +1037,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>运输方式</t>
@@ -1097,7 +1048,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>我司产品出货的运输方式：快件，</t>
@@ -1107,7 +1057,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1116,7 +1066,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>货代名称，客户自提</t>
@@ -1126,7 +1075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1135,7 +1084,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>还是</t>
@@ -1145,7 +1093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>HT</t>
     </r>
@@ -1154,7 +1102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>送货</t>
@@ -1166,7 +1113,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1176,7 +1122,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>DHL</t>
     </r>
@@ -1190,7 +1136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>账号</t>
@@ -1202,7 +1147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>如果是走快件的话，贵司负责运费，则贵司账号是多少</t>
@@ -1214,7 +1158,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1224,7 +1167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>DHL</t>
     </r>
@@ -1233,7 +1176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>账号</t>
@@ -1248,7 +1190,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1258,7 +1199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1269,7 +1210,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>以上栏位不能满足贵司对订单内容的要求时，</t>
@@ -1279,7 +1219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1288,7 +1228,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>则可以在此栏位进行显示</t>
@@ -1298,7 +1237,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1307,7 +1246,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>但是栏位名称不能变动</t>
@@ -1319,7 +1257,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1329,7 +1266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>laser mark</t>
     </r>
@@ -1343,7 +1280,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1353,7 +1289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1364,7 +1300,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>同上，这样的栏位总计会预留</t>
@@ -1374,7 +1309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1383,7 +1318,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -1395,7 +1329,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1405,7 +1338,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>datecode</t>
     </r>
@@ -1422,7 +1355,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如来料晶圆的快递单号</t>
@@ -1437,7 +1369,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特殊需求</t>
@@ -1447,7 +1378,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>10</t>
     </r>
@@ -1458,7 +1389,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比如</t>
@@ -1468,7 +1398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>PDS</t>
     </r>
@@ -1477,25 +1407,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编号</t>
     </r>
-  </si>
-  <si>
-    <t>#10~25</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,39 +1435,187 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="MS Sans Serif"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1547,34 +1623,204 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1597,32 +1843,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1636,48 +2124,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="百分比 2" xfId="1"/>
+  <cellStyles count="58">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="6"/>
-    <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 3 2 2" xfId="2"/>
-    <cellStyle name="常规 5" xfId="8"/>
-    <cellStyle name="常规 8" xfId="3"/>
-    <cellStyle name="千位分隔 2" xfId="9"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="百分比 2" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="常规 3 2 2" xfId="19"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="常规 8" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="46" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
+    <cellStyle name="常规 10" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="55"/>
+    <cellStyle name="常规 5" xfId="56"/>
+    <cellStyle name="千位分隔 2" xfId="57"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1726,7 +2258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,7 +2293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,19 +2496,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -1994,182 +2526,229 @@
     <col min="22" max="22" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="15" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:22">
+      <c r="A2" s="5">
+        <v>43976</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="7">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="J2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:22">
+      <c r="A4" s="5">
+        <v>43976</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
     </row>
-    <row r="2" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="6" ht="27" customHeight="1" spans="1:22">
+      <c r="A6" s="5">
         <v>43976</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>43976</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="5">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -2177,250 +2756,253 @@
     <col min="4" max="4" width="87.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.75" x14ac:dyDescent="0.15">
+    <row r="5" ht="27.75" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" ht="28.5" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="28.5" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="11" ht="85.5" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="28.5" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" ht="27" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="14" ht="41.25" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="9"/>
+        <v>88</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C15:C17"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>